--- a/docs/data/upcoming.xlsx
+++ b/docs/data/upcoming.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sigrid\Documents\BES\BES_new\docs\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sigrid\Documents\BES\home-workbranch (2)\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>date</t>
   </si>
@@ -41,6 +41,24 @@
   <si>
     <t>Real-World Data Quality - Assessing data quality and demonstrating fitness-for-purpose</t>
   </si>
+  <si>
+    <t>RWD Frameworks: Estimands,  Target Trial Framework</t>
+  </si>
+  <si>
+    <r>
+      <t>https://forms.gle/g4nGdwpUDZnEa74U9</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -49,7 +67,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd&quot;.&quot;mm&quot;.&quot;yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -78,6 +96,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -100,7 +125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -135,6 +160,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -485,7 +511,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,10 +552,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="str">
+        <f>"27.10.2023"</f>
+        <v>27.10.2023</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
@@ -5232,8 +5268,11 @@
       <c r="C943" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="https://forms.gle/g4nGdwpUDZnEa74U9"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/docs/data/upcoming.xlsx
+++ b/docs/data/upcoming.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sigrid\Documents\BES\home-workbranch (2)\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.novartis.net/personal/behrsi1_novartis_net/Documents/_BACKUP H-Drive/QSE/BaselEpiSeminar/Seminar12 (BES Estimands Target Trial)/Files for website/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{C89AA898-3AB8-4517-AA0C-B3D04FE51CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FF0BD3A-6842-4F5C-BD23-CD58DF609CB7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conferences" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -45,29 +59,17 @@
     <t>RWD Frameworks: Estimands,  Target Trial Framework</t>
   </si>
   <si>
-    <r>
-      <t>https://forms.gle/g4nGdwpUDZnEa74U9</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t>https://forms.gle/mKf5iYAfTVNbMzrL7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd&quot;.&quot;mm&quot;.&quot;yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -93,13 +95,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -163,8 +158,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -191,7 +186,13 @@
     <xdr:ext cx="9525" cy="9525"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.gif" descr="https://ssl.gstatic.com/ui/v1/icons/mail/images/cleardot.gif"/>
+        <xdr:cNvPr id="2" name="image1.gif" descr="https://ssl.gstatic.com/ui/v1/icons/mail/images/cleardot.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -219,7 +220,13 @@
     <xdr:ext cx="9525" cy="9525"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image1.gif" descr="https://ssl.gstatic.com/ui/v1/icons/mail/images/cleardot.gif"/>
+        <xdr:cNvPr id="3" name="image1.gif" descr="https://ssl.gstatic.com/ui/v1/icons/mail/images/cleardot.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -506,15 +513,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D943"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.85546875" style="6" bestFit="1" customWidth="1"/>
@@ -5269,7 +5276,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://forms.gle/g4nGdwpUDZnEa74U9"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/docs/data/upcoming.xlsx
+++ b/docs/data/upcoming.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.novartis.net/personal/behrsi1_novartis_net/Documents/_BACKUP H-Drive/QSE/BaselEpiSeminar/Seminar12 (BES Estimands Target Trial)/Files for website/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sigrid\Documents\BES\work\docs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{C89AA898-3AB8-4517-AA0C-B3D04FE51CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FF0BD3A-6842-4F5C-BD23-CD58DF609CB7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Conferences" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -61,11 +60,17 @@
   <si>
     <t>https://forms.gle/mKf5iYAfTVNbMzrL7</t>
   </si>
+  <si>
+    <t>Methods for rare diseases, small or special populations</t>
+  </si>
+  <si>
+    <t>https://forms.gle/y96E9KkUNqYgKbJv7</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd&quot;.&quot;mm&quot;.&quot;yyyy"/>
   </numFmts>
@@ -158,8 +163,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -189,7 +194,7 @@
         <xdr:cNvPr id="2" name="image1.gif" descr="https://ssl.gstatic.com/ui/v1/icons/mail/images/cleardot.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -223,7 +228,7 @@
         <xdr:cNvPr id="3" name="image1.gif" descr="https://ssl.gstatic.com/ui/v1/icons/mail/images/cleardot.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -513,15 +518,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D943"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.85546875" style="6" bestFit="1" customWidth="1"/>
@@ -574,10 +579,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>45456</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -5276,10 +5290,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/docs/data/upcoming.xlsx
+++ b/docs/data/upcoming.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sigrid\Documents\BES\work\docs\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sigrid\Documents\BES\work\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Conferences" sheetId="1" r:id="rId1"/>
@@ -194,7 +194,7 @@
         <xdr:cNvPr id="2" name="image1.gif" descr="https://ssl.gstatic.com/ui/v1/icons/mail/images/cleardot.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -228,7 +228,7 @@
         <xdr:cNvPr id="3" name="image1.gif" descr="https://ssl.gstatic.com/ui/v1/icons/mail/images/cleardot.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -523,7 +523,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,8 +580,9 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>45456</v>
+      <c r="A4" s="7" t="str">
+        <f>"13.06.2024"</f>
+        <v>13.06.2024</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
